--- a/엑셀/BossMonster.xlsx
+++ b/엑셀/BossMonster.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <r>
       <t>N</t>
@@ -91,35 +91,41 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>보스몬스터02</t>
+  </si>
+  <si>
+    <t>보스몬스터03</t>
+  </si>
+  <si>
+    <t>보스몬스터04</t>
+  </si>
+  <si>
+    <t>보스몬스터05</t>
+  </si>
+  <si>
+    <t>보스몬스터06</t>
+  </si>
+  <si>
+    <t>보스몬스터07</t>
+  </si>
+  <si>
+    <t>보스몬스터08</t>
+  </si>
+  <si>
+    <t>보스몬스터09</t>
+  </si>
+  <si>
+    <t>보스몬스터10</t>
+  </si>
+  <si>
+    <t>ConditionName</t>
+  </si>
+  <si>
+    <t>보스몬스터01</t>
+  </si>
+  <si>
     <t>보스몬스터01</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스몬스터02</t>
-  </si>
-  <si>
-    <t>보스몬스터03</t>
-  </si>
-  <si>
-    <t>보스몬스터04</t>
-  </si>
-  <si>
-    <t>보스몬스터05</t>
-  </si>
-  <si>
-    <t>보스몬스터06</t>
-  </si>
-  <si>
-    <t>보스몬스터07</t>
-  </si>
-  <si>
-    <t>보스몬스터08</t>
-  </si>
-  <si>
-    <t>보스몬스터09</t>
-  </si>
-  <si>
-    <t>보스몬스터10</t>
   </si>
 </sst>
 </file>
@@ -439,10 +445,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -451,9 +457,10 @@
     <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,71 +479,80 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>500</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>500</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>1000</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -552,111 +568,129 @@
       <c r="F5">
         <v>500</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>500</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>1000</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>1000</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>500</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>1000</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>500</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>1000</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>500</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>1000</v>
-      </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -671,6 +705,9 @@
       </c>
       <c r="F11">
         <v>500</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
